--- a/uploads/sandbox_9 - Bunnys(1).xlsx
+++ b/uploads/sandbox_9 - Bunnys(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCE7889-D578-46BF-BA56-EB14AC213CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3036D4C-B58F-499D-B5A9-08B278698BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="728">
   <si>
     <t>sellerBusinessName</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Products</t>
   </si>
   <si>
-    <t>18%</t>
-  </si>
-  <si>
     <t>Party Code</t>
   </si>
   <si>
@@ -2143,24 +2140,12 @@
     <t>Lahore</t>
   </si>
   <si>
-    <t>8974121</t>
-  </si>
-  <si>
     <t>32-77-8761-518-76</t>
   </si>
   <si>
-    <t>SN001</t>
-  </si>
-  <si>
-    <t>4911.9900</t>
-  </si>
-  <si>
     <t>Numbers, pieces, units</t>
   </si>
   <si>
-    <t>Goods at standard rate (default)</t>
-  </si>
-  <si>
     <t>CNIC</t>
   </si>
   <si>
@@ -2182,9 +2167,6 @@
     <t>250600451 / 26-06-2025</t>
   </si>
   <si>
-    <t>Bunnys Limited</t>
-  </si>
-  <si>
     <t>Industrial Estate Kotlakhpat, Lahore</t>
   </si>
   <si>
@@ -2197,22 +2179,37 @@
     <t>BN-24 &amp; 24A / 06-08-2025 &amp; 12-08-2025</t>
   </si>
   <si>
-    <t>145000150240 - Box Short Cake Fruit 100GR</t>
-  </si>
-  <si>
-    <t>199850</t>
-  </si>
-  <si>
-    <t>5.50</t>
-  </si>
-  <si>
-    <t>1099175</t>
-  </si>
-  <si>
-    <t>197851.50</t>
-  </si>
-  <si>
-    <t>1297026.50</t>
+    <t>3520209382291</t>
+  </si>
+  <si>
+    <t>SN017</t>
+  </si>
+  <si>
+    <t>Millat Tractors</t>
+  </si>
+  <si>
+    <t>Product 1</t>
+  </si>
+  <si>
+    <t>8701.9290</t>
+  </si>
+  <si>
+    <t>0.5%</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>59528000</t>
+  </si>
+  <si>
+    <t>297640</t>
+  </si>
+  <si>
+    <t>59825640</t>
+  </si>
+  <si>
+    <t>Goods (FED in ST Mode)</t>
   </si>
 </sst>
 </file>
@@ -2884,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2920,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2928,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -2944,15 +2941,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2968,7 +2965,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -2984,7 +2981,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -2992,18 +2989,18 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>717</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -3013,7 +3010,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B16"/>
     </row>
@@ -3022,7 +3019,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -3030,7 +3027,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -3046,34 +3043,34 @@
         <v>13</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="18" x14ac:dyDescent="0.35">
@@ -3101,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>22</v>
@@ -3142,31 +3139,31 @@
     </row>
     <row r="27" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>720</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>31</v>
@@ -3181,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -3210,19 +3207,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -3230,13 +3227,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>3</v>
@@ -3247,13 +3244,13 @@
         <v>102</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>3</v>
@@ -3264,13 +3261,13 @@
         <v>103</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>3</v>
@@ -3281,13 +3278,13 @@
         <v>104</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>3</v>
@@ -3298,13 +3295,13 @@
         <v>105</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>3</v>
@@ -3315,13 +3312,13 @@
         <v>106</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>3</v>
@@ -3332,13 +3329,13 @@
         <v>107</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>3</v>
@@ -3349,13 +3346,13 @@
         <v>108</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>3</v>
@@ -3366,13 +3363,13 @@
         <v>109</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>3</v>
@@ -3383,13 +3380,13 @@
         <v>110</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>3</v>
@@ -3400,13 +3397,13 @@
         <v>111</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>3</v>
@@ -3417,13 +3414,13 @@
         <v>112</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>3</v>
@@ -3434,13 +3431,13 @@
         <v>113</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>3</v>
@@ -3451,13 +3448,13 @@
         <v>114</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>83</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>3</v>
@@ -3468,13 +3465,13 @@
         <v>115</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>3</v>
@@ -3485,13 +3482,13 @@
         <v>116</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="20" t="s">
         <v>88</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>89</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>3</v>
@@ -3502,13 +3499,13 @@
         <v>117</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>3</v>
@@ -3519,13 +3516,13 @@
         <v>118</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>3</v>
@@ -3536,13 +3533,13 @@
         <v>119</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>3</v>
@@ -3553,13 +3550,13 @@
         <v>120</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>3</v>
@@ -3570,13 +3567,13 @@
         <v>121</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>3</v>
@@ -3587,13 +3584,13 @@
         <v>122</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>3</v>
@@ -3604,13 +3601,13 @@
         <v>123</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>3</v>
@@ -3621,13 +3618,13 @@
         <v>124</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>3</v>
@@ -3638,13 +3635,13 @@
         <v>125</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>116</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>3</v>
@@ -3655,13 +3652,13 @@
         <v>126</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>3</v>
@@ -3672,13 +3669,13 @@
         <v>127</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>3</v>
@@ -3689,13 +3686,13 @@
         <v>128</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>3</v>
@@ -3706,13 +3703,13 @@
         <v>129</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>128</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>3</v>
@@ -3723,13 +3720,13 @@
         <v>130</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="20" t="s">
         <v>130</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>131</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>3</v>
@@ -3740,13 +3737,13 @@
         <v>131</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>3</v>
@@ -3757,13 +3754,13 @@
         <v>132</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>3</v>
@@ -3774,13 +3771,13 @@
         <v>133</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>3</v>
@@ -3791,13 +3788,13 @@
         <v>134</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>3</v>
@@ -3808,13 +3805,13 @@
         <v>135</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>3</v>
@@ -3825,13 +3822,13 @@
         <v>136</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>3</v>
@@ -3842,13 +3839,13 @@
         <v>137</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="D38" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>3</v>
@@ -3859,13 +3856,13 @@
         <v>138</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="D39" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>155</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>3</v>
@@ -3876,13 +3873,13 @@
         <v>139</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>3</v>
@@ -3893,13 +3890,13 @@
         <v>140</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>3</v>
@@ -3910,13 +3907,13 @@
         <v>141</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>164</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>3</v>
@@ -3927,16 +3924,16 @@
         <v>142</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="D43" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="E43" s="21" t="s">
         <v>167</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -3944,13 +3941,13 @@
         <v>143</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="D44" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>3</v>
@@ -3961,13 +3958,13 @@
         <v>144</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="D45" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>174</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>3</v>
@@ -3978,13 +3975,13 @@
         <v>145</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="D46" s="23" t="s">
         <v>176</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>177</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>3</v>
@@ -3995,13 +3992,13 @@
         <v>146</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="D47" s="25" t="s">
         <v>179</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>180</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>3</v>
@@ -4012,13 +4009,13 @@
         <v>147</v>
       </c>
       <c r="B48" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="D48" s="28" t="s">
         <v>182</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>183</v>
       </c>
       <c r="E48" s="21" t="s">
         <v>3</v>
@@ -4029,13 +4026,13 @@
         <v>148</v>
       </c>
       <c r="B49" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="D49" s="31" t="s">
         <v>185</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>186</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>3</v>
@@ -4046,13 +4043,13 @@
         <v>149</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="D50" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>189</v>
       </c>
       <c r="E50" s="21" t="s">
         <v>3</v>
@@ -4063,13 +4060,13 @@
         <v>150</v>
       </c>
       <c r="B51" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="D51" s="25" t="s">
         <v>191</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>192</v>
       </c>
       <c r="E51" s="21" t="s">
         <v>3</v>
@@ -4080,13 +4077,13 @@
         <v>151</v>
       </c>
       <c r="B52" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="30" t="s">
-        <v>194</v>
-      </c>
       <c r="D52" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E52" s="21" t="s">
         <v>3</v>
@@ -4097,13 +4094,13 @@
         <v>152</v>
       </c>
       <c r="B53" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="D53" s="28" t="s">
         <v>196</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>197</v>
       </c>
       <c r="E53" s="21" t="s">
         <v>3</v>
@@ -4114,13 +4111,13 @@
         <v>153</v>
       </c>
       <c r="B54" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="D54" s="28" t="s">
         <v>199</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>200</v>
       </c>
       <c r="E54" s="21" t="s">
         <v>3</v>
@@ -4131,13 +4128,13 @@
         <v>154</v>
       </c>
       <c r="B55" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="D55" s="28" t="s">
         <v>202</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>203</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>3</v>
@@ -4148,13 +4145,13 @@
         <v>155</v>
       </c>
       <c r="B56" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="D56" s="28" t="s">
         <v>205</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>206</v>
       </c>
       <c r="E56" s="21" t="s">
         <v>3</v>
@@ -4165,13 +4162,13 @@
         <v>156</v>
       </c>
       <c r="B57" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="D57" s="25" t="s">
         <v>208</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>209</v>
       </c>
       <c r="E57" s="21" t="s">
         <v>3</v>
@@ -4182,13 +4179,13 @@
         <v>157</v>
       </c>
       <c r="B58" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="D58" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="E58" s="21" t="s">
         <v>3</v>
@@ -4199,13 +4196,13 @@
         <v>158</v>
       </c>
       <c r="B59" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="D59" s="25" t="s">
         <v>214</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>215</v>
       </c>
       <c r="E59" s="21" t="s">
         <v>3</v>
@@ -4216,13 +4213,13 @@
         <v>159</v>
       </c>
       <c r="B60" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="D60" s="28" t="s">
         <v>217</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>218</v>
       </c>
       <c r="E60" s="21" t="s">
         <v>3</v>
@@ -4233,16 +4230,16 @@
         <v>160</v>
       </c>
       <c r="B61" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="D61" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="D61" s="28" t="s">
-        <v>221</v>
-      </c>
       <c r="E61" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -4250,13 +4247,13 @@
         <v>161</v>
       </c>
       <c r="B62" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="D62" s="25" t="s">
         <v>223</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>224</v>
       </c>
       <c r="E62" s="21" t="s">
         <v>3</v>
@@ -4267,13 +4264,13 @@
         <v>162</v>
       </c>
       <c r="B63" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="D63" s="28" t="s">
         <v>226</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>227</v>
       </c>
       <c r="E63" s="21" t="s">
         <v>3</v>
@@ -4284,13 +4281,13 @@
         <v>163</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C64" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="E64" s="21" t="s">
         <v>3</v>
@@ -4301,13 +4298,13 @@
         <v>164</v>
       </c>
       <c r="B65" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C65" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="D65" s="28" t="s">
         <v>230</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>231</v>
       </c>
       <c r="E65" s="21" t="s">
         <v>3</v>
@@ -4318,13 +4315,13 @@
         <v>165</v>
       </c>
       <c r="B66" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="33" t="s">
+      <c r="D66" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="E66" s="21" t="s">
         <v>3</v>
@@ -4335,13 +4332,13 @@
         <v>166</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="D67" s="25" t="s">
         <v>236</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>237</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>3</v>
@@ -4352,16 +4349,16 @@
         <v>167</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="D68" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D68" s="25" t="s">
-        <v>240</v>
-      </c>
       <c r="E68" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4369,16 +4366,16 @@
         <v>168</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="D69" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="D69" s="25" t="s">
-        <v>243</v>
-      </c>
       <c r="E69" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4386,13 +4383,13 @@
         <v>169</v>
       </c>
       <c r="B70" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="27" t="s">
+      <c r="D70" s="28" t="s">
         <v>245</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>246</v>
       </c>
       <c r="E70" s="21" t="s">
         <v>3</v>
@@ -4403,13 +4400,13 @@
         <v>170</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="D71" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="E71" s="21" t="s">
         <v>3</v>
@@ -4420,16 +4417,16 @@
         <v>171</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="D72" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="D72" s="25" t="s">
-        <v>252</v>
-      </c>
       <c r="E72" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4437,13 +4434,13 @@
         <v>172</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="27" t="s">
+      <c r="D73" s="25" t="s">
         <v>254</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>255</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>3</v>
@@ -4454,16 +4451,16 @@
         <v>173</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="D74" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="D74" s="25" t="s">
-        <v>258</v>
-      </c>
       <c r="E74" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4471,13 +4468,13 @@
         <v>174</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="D75" s="25" t="s">
         <v>260</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>261</v>
       </c>
       <c r="E75" s="21" t="s">
         <v>3</v>
@@ -4488,13 +4485,13 @@
         <v>175</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="D76" s="25" t="s">
         <v>263</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>264</v>
       </c>
       <c r="E76" s="21" t="s">
         <v>3</v>
@@ -4505,13 +4502,13 @@
         <v>176</v>
       </c>
       <c r="B77" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="D77" s="36" t="s">
         <v>266</v>
-      </c>
-      <c r="D77" s="36" t="s">
-        <v>267</v>
       </c>
       <c r="E77" s="21" t="s">
         <v>3</v>
@@ -4522,13 +4519,13 @@
         <v>177</v>
       </c>
       <c r="B78" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C78" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="D78" s="25" t="s">
         <v>269</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>270</v>
       </c>
       <c r="E78" s="21" t="s">
         <v>3</v>
@@ -4539,13 +4536,13 @@
         <v>178</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="C79" s="37" t="s">
+      <c r="D79" s="38" t="s">
         <v>272</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>273</v>
       </c>
       <c r="E79" s="21" t="s">
         <v>3</v>
@@ -4556,13 +4553,13 @@
         <v>179</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="D80" s="25" t="s">
         <v>275</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>276</v>
       </c>
       <c r="E80" s="21" t="s">
         <v>3</v>
@@ -4573,13 +4570,13 @@
         <v>180</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C81" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="D81" s="25" t="s">
         <v>278</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>279</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>3</v>
@@ -4590,13 +4587,13 @@
         <v>181</v>
       </c>
       <c r="B82" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="C82" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="C82" s="40" t="s">
+      <c r="D82" s="41" t="s">
         <v>281</v>
-      </c>
-      <c r="D82" s="41" t="s">
-        <v>282</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>3</v>
@@ -4607,13 +4604,13 @@
         <v>182</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C83" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="D83" s="25" t="s">
         <v>284</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>285</v>
       </c>
       <c r="E83" s="21" t="s">
         <v>3</v>
@@ -4624,13 +4621,13 @@
         <v>183</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="D84" s="25" t="s">
         <v>287</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>288</v>
       </c>
       <c r="E84" s="21" t="s">
         <v>3</v>
@@ -4641,13 +4638,13 @@
         <v>184</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="D85" s="25" t="s">
         <v>290</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>291</v>
       </c>
       <c r="E85" s="21" t="s">
         <v>3</v>
@@ -4658,13 +4655,13 @@
         <v>185</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C86" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="C86" s="24" t="s">
+      <c r="D86" s="25" t="s">
         <v>293</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>294</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>3</v>
@@ -4675,16 +4672,16 @@
         <v>186</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C87" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="C87" s="24" t="s">
+      <c r="D87" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="D87" s="25" t="s">
+      <c r="E87" s="21" t="s">
         <v>297</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4692,13 +4689,13 @@
         <v>187</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="C88" s="24" t="s">
+      <c r="D88" s="25" t="s">
         <v>300</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>301</v>
       </c>
       <c r="E88" s="21" t="s">
         <v>3</v>
@@ -4709,13 +4706,13 @@
         <v>188</v>
       </c>
       <c r="B89" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="C89" s="24" t="s">
+      <c r="D89" s="42" t="s">
         <v>303</v>
-      </c>
-      <c r="D89" s="42" t="s">
-        <v>304</v>
       </c>
       <c r="E89" s="21" t="s">
         <v>3</v>
@@ -4726,13 +4723,13 @@
         <v>189</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C90" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="C90" s="24" t="s">
+      <c r="D90" s="25" t="s">
         <v>306</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>307</v>
       </c>
       <c r="E90" s="21" t="s">
         <v>3</v>
@@ -4743,13 +4740,13 @@
         <v>190</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C91" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="C91" s="24" t="s">
+      <c r="D91" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>310</v>
       </c>
       <c r="E91" s="21" t="s">
         <v>3</v>
@@ -4760,13 +4757,13 @@
         <v>191</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C92" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="C92" s="24" t="s">
+      <c r="D92" s="25" t="s">
         <v>312</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>313</v>
       </c>
       <c r="E92" s="21" t="s">
         <v>3</v>
@@ -4777,13 +4774,13 @@
         <v>192</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C93" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="C93" s="24" t="s">
+      <c r="D93" s="25" t="s">
         <v>315</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>316</v>
       </c>
       <c r="E93" s="21" t="s">
         <v>3</v>
@@ -4794,13 +4791,13 @@
         <v>193</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C94" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="D94" s="25" t="s">
         <v>318</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>319</v>
       </c>
       <c r="E94" s="21" t="s">
         <v>3</v>
@@ -4811,13 +4808,13 @@
         <v>194</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C95" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="C95" s="24" t="s">
+      <c r="D95" s="25" t="s">
         <v>321</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="E95" s="21" t="s">
         <v>3</v>
@@ -4828,13 +4825,13 @@
         <v>195</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="C96" s="24" t="s">
+      <c r="D96" s="25" t="s">
         <v>324</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>325</v>
       </c>
       <c r="E96" s="21" t="s">
         <v>3</v>
@@ -4845,13 +4842,13 @@
         <v>196</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="C97" s="24" t="s">
+      <c r="D97" s="25" t="s">
         <v>327</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>328</v>
       </c>
       <c r="E97" s="21" t="s">
         <v>3</v>
@@ -4862,13 +4859,13 @@
         <v>197</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C98" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="D98" s="25" t="s">
         <v>330</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>331</v>
       </c>
       <c r="E98" s="21" t="s">
         <v>3</v>
@@ -4879,13 +4876,13 @@
         <v>198</v>
       </c>
       <c r="B99" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C99" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="C99" s="24" t="s">
+      <c r="D99" s="25" t="s">
         <v>333</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>334</v>
       </c>
       <c r="E99" s="21" t="s">
         <v>3</v>
@@ -4896,13 +4893,13 @@
         <v>199</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C100" s="43">
         <v>7051427</v>
       </c>
       <c r="D100" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E100" s="21" t="s">
         <v>3</v>
@@ -4913,13 +4910,13 @@
         <v>200</v>
       </c>
       <c r="B101" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="C101" s="24" t="s">
-        <v>338</v>
-      </c>
       <c r="D101" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E101" s="21" t="s">
         <v>31</v>
@@ -4930,16 +4927,16 @@
         <v>201</v>
       </c>
       <c r="B102" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C102" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="D102" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="D102" s="25" t="s">
-        <v>341</v>
-      </c>
       <c r="E102" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -4947,13 +4944,13 @@
         <v>202</v>
       </c>
       <c r="B103" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C103" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="D103" s="25" t="s">
         <v>343</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>344</v>
       </c>
       <c r="E103" s="21" t="s">
         <v>3</v>
@@ -4964,13 +4961,13 @@
         <v>203</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C104" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="D104" s="25" t="s">
         <v>346</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>347</v>
       </c>
       <c r="E104" s="21" t="s">
         <v>3</v>
@@ -4981,13 +4978,13 @@
         <v>204</v>
       </c>
       <c r="B105" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C105" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="D105" s="25" t="s">
         <v>349</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>350</v>
       </c>
       <c r="E105" s="21" t="s">
         <v>3</v>
@@ -4998,13 +4995,13 @@
         <v>205</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C106" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="D106" s="25" t="s">
         <v>352</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>353</v>
       </c>
       <c r="E106" s="21" t="s">
         <v>3</v>
@@ -5015,13 +5012,13 @@
         <v>206</v>
       </c>
       <c r="B107" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C107" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="D107" s="25" t="s">
         <v>355</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>356</v>
       </c>
       <c r="E107" s="21" t="s">
         <v>3</v>
@@ -5032,13 +5029,13 @@
         <v>207</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C108" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="C108" s="24" t="s">
+      <c r="D108" s="25" t="s">
         <v>358</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>359</v>
       </c>
       <c r="E108" s="21" t="s">
         <v>3</v>
@@ -5049,13 +5046,13 @@
         <v>208</v>
       </c>
       <c r="B109" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C109" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="D109" s="25" t="s">
         <v>361</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>362</v>
       </c>
       <c r="E109" s="21" t="s">
         <v>3</v>
@@ -5066,16 +5063,16 @@
         <v>209</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C110" s="24">
         <v>4289379</v>
       </c>
       <c r="D110" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E110" s="21" t="s">
         <v>364</v>
-      </c>
-      <c r="E110" s="21" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -5083,13 +5080,13 @@
         <v>210</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C111" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="C111" s="24" t="s">
+      <c r="D111" s="25" t="s">
         <v>367</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>368</v>
       </c>
       <c r="E111" s="21" t="s">
         <v>3</v>
@@ -5100,13 +5097,13 @@
         <v>211</v>
       </c>
       <c r="B112" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C112" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="C112" s="24" t="s">
+      <c r="D112" s="25" t="s">
         <v>370</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>371</v>
       </c>
       <c r="E112" s="21" t="s">
         <v>3</v>
@@ -5117,13 +5114,13 @@
         <v>212</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C113" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="C113" s="24" t="s">
-        <v>373</v>
-      </c>
       <c r="D113" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E113" s="21" t="s">
         <v>3</v>
@@ -5134,13 +5131,13 @@
         <v>213</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C114" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="C114" s="24" t="s">
+      <c r="D114" s="25" t="s">
         <v>375</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>376</v>
       </c>
       <c r="E114" s="21" t="s">
         <v>3</v>
@@ -5151,13 +5148,13 @@
         <v>214</v>
       </c>
       <c r="B115" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C115" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="C115" s="24" t="s">
+      <c r="D115" s="25" t="s">
         <v>378</v>
-      </c>
-      <c r="D115" s="25" t="s">
-        <v>379</v>
       </c>
       <c r="E115" s="21" t="s">
         <v>3</v>
@@ -5168,16 +5165,16 @@
         <v>215</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C116" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="C116" s="46" t="s">
+      <c r="D116" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="D116" s="25" t="s">
-        <v>382</v>
-      </c>
       <c r="E116" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -5185,13 +5182,13 @@
         <v>216</v>
       </c>
       <c r="B117" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C117" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="C117" s="24" t="s">
+      <c r="D117" s="25" t="s">
         <v>384</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>385</v>
       </c>
       <c r="E117" s="21" t="s">
         <v>3</v>
@@ -5202,16 +5199,16 @@
         <v>217</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C118" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="C118" s="24" t="s">
+      <c r="D118" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="D118" s="25" t="s">
-        <v>388</v>
-      </c>
       <c r="E118" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -5219,13 +5216,13 @@
         <v>218</v>
       </c>
       <c r="B119" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C119" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="D119" s="25" t="s">
         <v>390</v>
-      </c>
-      <c r="D119" s="25" t="s">
-        <v>391</v>
       </c>
       <c r="E119" s="21" t="s">
         <v>3</v>
@@ -5236,13 +5233,13 @@
         <v>219</v>
       </c>
       <c r="B120" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C120" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="C120" s="24" t="s">
+      <c r="D120" s="25" t="s">
         <v>393</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>394</v>
       </c>
       <c r="E120" s="21" t="s">
         <v>3</v>
@@ -5253,13 +5250,13 @@
         <v>220</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C121" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="C121" s="24" t="s">
+      <c r="D121" s="25" t="s">
         <v>396</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>397</v>
       </c>
       <c r="E121" s="21" t="s">
         <v>3</v>
@@ -5270,13 +5267,13 @@
         <v>221</v>
       </c>
       <c r="B122" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="C122" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="C122" s="24" t="s">
+      <c r="D122" s="25" t="s">
         <v>399</v>
-      </c>
-      <c r="D122" s="25" t="s">
-        <v>400</v>
       </c>
       <c r="E122" s="21" t="s">
         <v>3</v>
@@ -5287,13 +5284,13 @@
         <v>222</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C123" s="24">
         <v>7540542</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E123" s="21" t="s">
         <v>3</v>
@@ -5304,13 +5301,13 @@
         <v>223</v>
       </c>
       <c r="B124" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="C124" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="C124" s="24" t="s">
-        <v>404</v>
-      </c>
       <c r="D124" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E124" s="21" t="s">
         <v>3</v>
@@ -5321,13 +5318,13 @@
         <v>224</v>
       </c>
       <c r="B125" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="C125" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="C125" s="24" t="s">
+      <c r="D125" s="10" t="s">
         <v>406</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>407</v>
       </c>
       <c r="E125" s="21"/>
     </row>
@@ -5336,13 +5333,13 @@
         <v>225</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C126" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="C126" s="24" t="s">
+      <c r="D126" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="E126" s="21"/>
     </row>
@@ -5351,13 +5348,13 @@
         <v>226</v>
       </c>
       <c r="B127" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C127" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="C127" s="24" t="s">
+      <c r="D127" s="10" t="s">
         <v>412</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>413</v>
       </c>
       <c r="E127" s="21"/>
     </row>
@@ -5366,13 +5363,13 @@
         <v>227</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C128" s="24" t="s">
         <v>414</v>
       </c>
-      <c r="C128" s="24" t="s">
+      <c r="D128" s="10" t="s">
         <v>415</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>416</v>
       </c>
       <c r="E128" s="21"/>
     </row>
@@ -5381,13 +5378,13 @@
         <v>228</v>
       </c>
       <c r="B129" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C129" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="C129" s="24" t="s">
+      <c r="D129" s="10" t="s">
         <v>418</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>419</v>
       </c>
       <c r="E129" s="21"/>
     </row>
@@ -5396,13 +5393,13 @@
         <v>229</v>
       </c>
       <c r="B130" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C130" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="C130" s="24" t="s">
-        <v>421</v>
-      </c>
       <c r="D130" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E130" s="21"/>
     </row>
@@ -5411,13 +5408,13 @@
         <v>230</v>
       </c>
       <c r="B131" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C131" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="C131" s="24" t="s">
+      <c r="D131" s="10" t="s">
         <v>423</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>424</v>
       </c>
       <c r="E131" s="21"/>
     </row>
@@ -5426,13 +5423,13 @@
         <v>231</v>
       </c>
       <c r="B132" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C132" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="C132" s="24" t="s">
+      <c r="D132" s="10" t="s">
         <v>426</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>427</v>
       </c>
       <c r="E132" s="21"/>
     </row>
@@ -5441,13 +5438,13 @@
         <v>232</v>
       </c>
       <c r="B133" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C133" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="C133" s="24" t="s">
+      <c r="D133" s="10" t="s">
         <v>429</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>430</v>
       </c>
       <c r="E133" s="21"/>
     </row>
@@ -5456,13 +5453,13 @@
         <v>233</v>
       </c>
       <c r="B134" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C134" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="C134" s="24" t="s">
+      <c r="D134" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="E134" s="21"/>
     </row>
@@ -5471,13 +5468,13 @@
         <v>234</v>
       </c>
       <c r="B135" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C135" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="C135" s="24" t="s">
+      <c r="D135" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>433</v>
       </c>
       <c r="E135" s="21"/>
     </row>
@@ -5486,13 +5483,13 @@
         <v>235</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C136" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="C136" s="24" t="s">
+      <c r="D136" s="10" t="s">
         <v>435</v>
-      </c>
-      <c r="D136" s="10" t="s">
-        <v>436</v>
       </c>
       <c r="E136" s="21"/>
     </row>
@@ -5501,13 +5498,13 @@
         <v>236</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C137" s="24">
         <v>8926835</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E137" s="21"/>
     </row>
@@ -5516,13 +5513,13 @@
         <v>237</v>
       </c>
       <c r="B138" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C138" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="C138" s="24" t="s">
+      <c r="D138" s="25" t="s">
         <v>440</v>
-      </c>
-      <c r="D138" s="25" t="s">
-        <v>441</v>
       </c>
       <c r="E138" s="21" t="s">
         <v>3</v>
@@ -5533,13 +5530,13 @@
         <v>238</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C139" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="C139" s="24" t="s">
+      <c r="D139" s="25" t="s">
         <v>443</v>
-      </c>
-      <c r="D139" s="25" t="s">
-        <v>444</v>
       </c>
       <c r="E139" s="21" t="s">
         <v>3</v>
@@ -5550,13 +5547,13 @@
         <v>239</v>
       </c>
       <c r="B140" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="C140" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="C140" s="24" t="s">
+      <c r="D140" s="25" t="s">
         <v>446</v>
-      </c>
-      <c r="D140" s="25" t="s">
-        <v>447</v>
       </c>
       <c r="E140" s="21" t="s">
         <v>3</v>
@@ -5567,13 +5564,13 @@
         <v>240</v>
       </c>
       <c r="B141" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C141" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="C141" s="30" t="s">
+      <c r="D141" s="25" t="s">
         <v>449</v>
-      </c>
-      <c r="D141" s="25" t="s">
-        <v>450</v>
       </c>
       <c r="E141" s="21" t="s">
         <v>3</v>
@@ -5584,16 +5581,16 @@
         <v>241</v>
       </c>
       <c r="B142" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="C142" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="C142" s="30" t="s">
+      <c r="D142" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="E142" s="21" t="s">
         <v>452</v>
-      </c>
-      <c r="D142" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E142" s="21" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -5601,13 +5598,13 @@
         <v>242</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C143" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="D143" s="25" t="s">
         <v>454</v>
-      </c>
-      <c r="D143" s="25" t="s">
-        <v>455</v>
       </c>
       <c r="E143" s="21" t="s">
         <v>3</v>
@@ -5618,13 +5615,13 @@
         <v>243</v>
       </c>
       <c r="B144" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="C144" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="C144" s="30" t="s">
+      <c r="D144" s="25" t="s">
         <v>457</v>
-      </c>
-      <c r="D144" s="25" t="s">
-        <v>458</v>
       </c>
       <c r="E144" s="21" t="s">
         <v>3</v>
@@ -5635,13 +5632,13 @@
         <v>244</v>
       </c>
       <c r="B145" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="C145" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="C145" s="30" t="s">
+      <c r="D145" s="25" t="s">
         <v>460</v>
-      </c>
-      <c r="D145" s="25" t="s">
-        <v>461</v>
       </c>
       <c r="E145" s="21" t="s">
         <v>3</v>
@@ -5652,13 +5649,13 @@
         <v>245</v>
       </c>
       <c r="B146" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="C146" s="30" t="s">
         <v>462</v>
       </c>
-      <c r="C146" s="30" t="s">
+      <c r="D146" s="25" t="s">
         <v>463</v>
-      </c>
-      <c r="D146" s="25" t="s">
-        <v>464</v>
       </c>
       <c r="E146" s="21" t="s">
         <v>3</v>
@@ -5669,13 +5666,13 @@
         <v>246</v>
       </c>
       <c r="B147" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="C147" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="C147" s="30" t="s">
+      <c r="D147" s="25" t="s">
         <v>466</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>467</v>
       </c>
       <c r="E147" s="21" t="s">
         <v>3</v>
@@ -5686,13 +5683,13 @@
         <v>247</v>
       </c>
       <c r="B148" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="C148" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="C148" s="30" t="s">
+      <c r="D148" s="25" t="s">
         <v>469</v>
-      </c>
-      <c r="D148" s="25" t="s">
-        <v>470</v>
       </c>
       <c r="E148" s="21" t="s">
         <v>3</v>
@@ -5703,13 +5700,13 @@
         <v>248</v>
       </c>
       <c r="B149" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C149" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="C149" s="30" t="s">
+      <c r="D149" s="25" t="s">
         <v>472</v>
-      </c>
-      <c r="D149" s="25" t="s">
-        <v>473</v>
       </c>
       <c r="E149" s="21" t="s">
         <v>3</v>
@@ -5720,13 +5717,13 @@
         <v>249</v>
       </c>
       <c r="B150" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="C150" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="C150" s="30" t="s">
+      <c r="D150" s="25" t="s">
         <v>475</v>
-      </c>
-      <c r="D150" s="25" t="s">
-        <v>476</v>
       </c>
       <c r="E150" s="21" t="s">
         <v>3</v>
@@ -5737,16 +5734,16 @@
         <v>250</v>
       </c>
       <c r="B151" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="C151" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="C151" s="30" t="s">
+      <c r="D151" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="D151" s="25" t="s">
+      <c r="E151" s="21" t="s">
         <v>479</v>
-      </c>
-      <c r="E151" s="21" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -5754,13 +5751,13 @@
         <v>251</v>
       </c>
       <c r="B152" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="C152" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="C152" s="30" t="s">
+      <c r="D152" s="25" t="s">
         <v>482</v>
-      </c>
-      <c r="D152" s="25" t="s">
-        <v>483</v>
       </c>
       <c r="E152" s="21"/>
     </row>
@@ -5769,13 +5766,13 @@
         <v>252</v>
       </c>
       <c r="B153" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="C153" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="C153" s="30" t="s">
+      <c r="D153" s="25" t="s">
         <v>485</v>
-      </c>
-      <c r="D153" s="25" t="s">
-        <v>486</v>
       </c>
       <c r="E153" s="21"/>
     </row>
@@ -5784,13 +5781,13 @@
         <v>253</v>
       </c>
       <c r="B154" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="C154" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="C154" s="30" t="s">
+      <c r="D154" s="25" t="s">
         <v>488</v>
-      </c>
-      <c r="D154" s="25" t="s">
-        <v>489</v>
       </c>
       <c r="E154" s="21"/>
     </row>
@@ -5799,16 +5796,16 @@
         <v>254</v>
       </c>
       <c r="B155" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C155" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="C155" s="30" t="s">
+      <c r="D155" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="D155" s="25" t="s">
+      <c r="E155" s="42" t="s">
         <v>492</v>
-      </c>
-      <c r="E155" s="42" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -5816,13 +5813,13 @@
         <v>255</v>
       </c>
       <c r="B156" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="C156" s="30" t="s">
         <v>494</v>
       </c>
-      <c r="C156" s="30" t="s">
+      <c r="D156" s="25" t="s">
         <v>495</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>496</v>
       </c>
       <c r="E156" s="21"/>
     </row>
@@ -5831,13 +5828,13 @@
         <v>256</v>
       </c>
       <c r="B157" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="C157" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="C157" s="30" t="s">
+      <c r="D157" s="25" t="s">
         <v>498</v>
-      </c>
-      <c r="D157" s="25" t="s">
-        <v>499</v>
       </c>
       <c r="E157" s="21"/>
     </row>
@@ -5846,13 +5843,13 @@
         <v>257</v>
       </c>
       <c r="B158" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="C158" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="C158" s="30" t="s">
+      <c r="D158" s="25" t="s">
         <v>501</v>
-      </c>
-      <c r="D158" s="25" t="s">
-        <v>502</v>
       </c>
       <c r="E158" s="21"/>
     </row>
@@ -5861,13 +5858,13 @@
         <v>258</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C159" s="30">
         <v>2567679</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E159" s="21"/>
     </row>
@@ -5876,13 +5873,13 @@
         <v>259</v>
       </c>
       <c r="B160" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="C160" s="30" t="s">
         <v>505</v>
       </c>
-      <c r="C160" s="30" t="s">
+      <c r="D160" s="25" t="s">
         <v>506</v>
-      </c>
-      <c r="D160" s="25" t="s">
-        <v>507</v>
       </c>
       <c r="E160" s="21"/>
     </row>
@@ -5891,13 +5888,13 @@
         <v>260</v>
       </c>
       <c r="B161" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="C161" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="C161" s="30" t="s">
+      <c r="D161" s="25" t="s">
         <v>509</v>
-      </c>
-      <c r="D161" s="25" t="s">
-        <v>510</v>
       </c>
       <c r="E161" s="21"/>
     </row>
@@ -5906,13 +5903,13 @@
         <v>261</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C162" s="49">
         <v>3520128412735</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E162" s="21"/>
     </row>
@@ -5921,13 +5918,13 @@
         <v>262</v>
       </c>
       <c r="B163" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="C163" s="49" t="s">
         <v>513</v>
       </c>
-      <c r="C163" s="49" t="s">
+      <c r="D163" s="25" t="s">
         <v>514</v>
-      </c>
-      <c r="D163" s="25" t="s">
-        <v>515</v>
       </c>
       <c r="E163" s="21"/>
     </row>
@@ -5936,13 +5933,13 @@
         <v>263</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C164" s="30">
         <v>9013102</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E164" s="21"/>
     </row>
@@ -5951,13 +5948,13 @@
         <v>264</v>
       </c>
       <c r="B165" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C165" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="D165" s="25" t="s">
         <v>519</v>
-      </c>
-      <c r="D165" s="25" t="s">
-        <v>520</v>
       </c>
       <c r="E165" s="42" t="s">
         <v>3</v>
@@ -5968,16 +5965,16 @@
         <v>265</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C166" s="24">
         <v>2541423</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -5985,13 +5982,13 @@
         <v>266</v>
       </c>
       <c r="B167" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C167" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="C167" s="24" t="s">
+      <c r="D167" s="25" t="s">
         <v>522</v>
-      </c>
-      <c r="D167" s="25" t="s">
-        <v>523</v>
       </c>
       <c r="E167" s="21" t="s">
         <v>3</v>
@@ -6002,13 +5999,13 @@
         <v>267</v>
       </c>
       <c r="B168" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C168" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="C168" s="24" t="s">
+      <c r="D168" s="25" t="s">
         <v>525</v>
-      </c>
-      <c r="D168" s="25" t="s">
-        <v>526</v>
       </c>
       <c r="E168" s="21" t="s">
         <v>3</v>
@@ -6019,13 +6016,13 @@
         <v>268</v>
       </c>
       <c r="B169" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C169" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="C169" s="24" t="s">
+      <c r="D169" s="25" t="s">
         <v>528</v>
-      </c>
-      <c r="D169" s="25" t="s">
-        <v>529</v>
       </c>
       <c r="E169" s="21" t="s">
         <v>3</v>
@@ -6036,13 +6033,13 @@
         <v>269</v>
       </c>
       <c r="B170" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C170" s="24" t="s">
         <v>530</v>
       </c>
-      <c r="C170" s="24" t="s">
+      <c r="D170" s="25" t="s">
         <v>531</v>
-      </c>
-      <c r="D170" s="25" t="s">
-        <v>532</v>
       </c>
       <c r="E170" s="21" t="s">
         <v>3</v>
@@ -6053,13 +6050,13 @@
         <v>270</v>
       </c>
       <c r="B171" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C171" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="C171" s="24" t="s">
+      <c r="D171" s="25" t="s">
         <v>534</v>
-      </c>
-      <c r="D171" s="25" t="s">
-        <v>535</v>
       </c>
       <c r="E171" s="21" t="s">
         <v>3</v>
@@ -6070,13 +6067,13 @@
         <v>271</v>
       </c>
       <c r="B172" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C172" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="C172" s="24" t="s">
+      <c r="D172" s="25" t="s">
         <v>537</v>
-      </c>
-      <c r="D172" s="25" t="s">
-        <v>538</v>
       </c>
       <c r="E172" s="21" t="s">
         <v>3</v>
@@ -6087,13 +6084,13 @@
         <v>272</v>
       </c>
       <c r="B173" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C173" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="C173" s="24" t="s">
+      <c r="D173" s="25" t="s">
         <v>540</v>
-      </c>
-      <c r="D173" s="25" t="s">
-        <v>541</v>
       </c>
       <c r="E173" s="21" t="s">
         <v>3</v>
@@ -6104,13 +6101,13 @@
         <v>273</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C174" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="D174" s="25" t="s">
         <v>543</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>544</v>
       </c>
       <c r="E174" s="21" t="s">
         <v>3</v>
@@ -6121,13 +6118,13 @@
         <v>274</v>
       </c>
       <c r="B175" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C175" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="C175" s="24" t="s">
+      <c r="D175" s="25" t="s">
         <v>546</v>
-      </c>
-      <c r="D175" s="25" t="s">
-        <v>547</v>
       </c>
       <c r="E175" s="21" t="s">
         <v>3</v>
@@ -6138,16 +6135,16 @@
         <v>275</v>
       </c>
       <c r="B176" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C176" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="C176" s="24" t="s">
+      <c r="D176" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="D176" s="25" t="s">
-        <v>550</v>
-      </c>
       <c r="E176" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6155,13 +6152,13 @@
         <v>276</v>
       </c>
       <c r="B177" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C177" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="C177" s="24" t="s">
+      <c r="D177" s="25" t="s">
         <v>552</v>
-      </c>
-      <c r="D177" s="25" t="s">
-        <v>553</v>
       </c>
       <c r="E177" s="21" t="s">
         <v>3</v>
@@ -6172,13 +6169,13 @@
         <v>277</v>
       </c>
       <c r="B178" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C178" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="C178" s="24" t="s">
+      <c r="D178" s="25" t="s">
         <v>555</v>
-      </c>
-      <c r="D178" s="25" t="s">
-        <v>556</v>
       </c>
       <c r="E178" s="21" t="s">
         <v>3</v>
@@ -6189,16 +6186,16 @@
         <v>278</v>
       </c>
       <c r="B179" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C179" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="C179" s="24" t="s">
+      <c r="D179" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="D179" s="25" t="s">
-        <v>559</v>
-      </c>
       <c r="E179" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6206,16 +6203,16 @@
         <v>279</v>
       </c>
       <c r="B180" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C180" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="C180" s="24" t="s">
+      <c r="D180" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="D180" s="25" t="s">
-        <v>562</v>
-      </c>
       <c r="E180" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6223,13 +6220,13 @@
         <v>280</v>
       </c>
       <c r="B181" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C181" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="C181" s="24" t="s">
+      <c r="D181" s="25" t="s">
         <v>564</v>
-      </c>
-      <c r="D181" s="25" t="s">
-        <v>565</v>
       </c>
       <c r="E181" s="21" t="s">
         <v>3</v>
@@ -6240,13 +6237,13 @@
         <v>281</v>
       </c>
       <c r="B182" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C182" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="D182" s="25" t="s">
         <v>567</v>
-      </c>
-      <c r="D182" s="25" t="s">
-        <v>568</v>
       </c>
       <c r="E182" s="21" t="s">
         <v>3</v>
@@ -6257,13 +6254,13 @@
         <v>282</v>
       </c>
       <c r="B183" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C183" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="C183" s="24" t="s">
+      <c r="D183" s="25" t="s">
         <v>570</v>
-      </c>
-      <c r="D183" s="25" t="s">
-        <v>571</v>
       </c>
       <c r="E183" s="21" t="s">
         <v>3</v>
@@ -6274,13 +6271,13 @@
         <v>283</v>
       </c>
       <c r="B184" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C184" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="C184" s="24" t="s">
+      <c r="D184" s="25" t="s">
         <v>573</v>
-      </c>
-      <c r="D184" s="25" t="s">
-        <v>574</v>
       </c>
       <c r="E184" s="21" t="s">
         <v>3</v>
@@ -6291,13 +6288,13 @@
         <v>284</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C185" s="24">
         <v>4996946</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E185" s="21" t="s">
         <v>3</v>
@@ -6308,16 +6305,16 @@
         <v>285</v>
       </c>
       <c r="B186" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C186" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="C186" s="24" t="s">
+      <c r="D186" s="25" t="s">
         <v>578</v>
       </c>
-      <c r="D186" s="25" t="s">
-        <v>579</v>
-      </c>
       <c r="E186" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6325,16 +6322,16 @@
         <v>286</v>
       </c>
       <c r="B187" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C187" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="C187" s="24" t="s">
+      <c r="D187" s="25" t="s">
         <v>581</v>
       </c>
-      <c r="D187" s="25" t="s">
-        <v>582</v>
-      </c>
       <c r="E187" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6342,16 +6339,16 @@
         <v>287</v>
       </c>
       <c r="B188" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C188" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="C188" s="24" t="s">
+      <c r="D188" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="D188" s="25" t="s">
-        <v>585</v>
-      </c>
       <c r="E188" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6359,16 +6356,16 @@
         <v>288</v>
       </c>
       <c r="B189" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C189" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="C189" s="24" t="s">
+      <c r="D189" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="D189" s="25" t="s">
-        <v>588</v>
-      </c>
       <c r="E189" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6376,13 +6373,13 @@
         <v>289</v>
       </c>
       <c r="B190" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C190" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="C190" s="24" t="s">
+      <c r="D190" s="25" t="s">
         <v>590</v>
-      </c>
-      <c r="D190" s="25" t="s">
-        <v>591</v>
       </c>
       <c r="E190" s="21" t="s">
         <v>3</v>
@@ -6393,13 +6390,13 @@
         <v>290</v>
       </c>
       <c r="B191" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C191" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="C191" s="24" t="s">
+      <c r="D191" s="25" t="s">
         <v>593</v>
-      </c>
-      <c r="D191" s="25" t="s">
-        <v>594</v>
       </c>
       <c r="E191" s="21" t="s">
         <v>3</v>
@@ -6410,13 +6407,13 @@
         <v>291</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C192" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="C192" s="24" t="s">
+      <c r="D192" s="25" t="s">
         <v>596</v>
-      </c>
-      <c r="D192" s="25" t="s">
-        <v>597</v>
       </c>
       <c r="E192" s="21" t="s">
         <v>3</v>
@@ -6427,13 +6424,13 @@
         <v>292</v>
       </c>
       <c r="B193" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C193" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="C193" s="24" t="s">
+      <c r="D193" s="25" t="s">
         <v>599</v>
-      </c>
-      <c r="D193" s="25" t="s">
-        <v>600</v>
       </c>
       <c r="E193" s="21" t="s">
         <v>3</v>
@@ -6444,13 +6441,13 @@
         <v>293</v>
       </c>
       <c r="B194" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C194" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="C194" s="24" t="s">
+      <c r="D194" s="25" t="s">
         <v>602</v>
-      </c>
-      <c r="D194" s="25" t="s">
-        <v>603</v>
       </c>
       <c r="E194" s="21" t="s">
         <v>3</v>
@@ -6461,13 +6458,13 @@
         <v>294</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C195" s="24">
         <v>6844285</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E195" s="21" t="s">
         <v>3</v>
@@ -6478,13 +6475,13 @@
         <v>295</v>
       </c>
       <c r="B196" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C196" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="C196" s="24" t="s">
+      <c r="D196" s="25" t="s">
         <v>606</v>
-      </c>
-      <c r="D196" s="25" t="s">
-        <v>607</v>
       </c>
       <c r="E196" s="21" t="s">
         <v>3</v>
@@ -6495,13 +6492,13 @@
         <v>296</v>
       </c>
       <c r="B197" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C197" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="C197" s="24" t="s">
+      <c r="D197" s="25" t="s">
         <v>609</v>
-      </c>
-      <c r="D197" s="25" t="s">
-        <v>610</v>
       </c>
       <c r="E197" s="21" t="s">
         <v>3</v>
@@ -6512,13 +6509,13 @@
         <v>297</v>
       </c>
       <c r="B198" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C198" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="C198" s="24" t="s">
+      <c r="D198" s="25" t="s">
         <v>612</v>
-      </c>
-      <c r="D198" s="25" t="s">
-        <v>613</v>
       </c>
       <c r="E198" s="21" t="s">
         <v>3</v>
@@ -6529,13 +6526,13 @@
         <v>298</v>
       </c>
       <c r="B199" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C199" s="24" t="s">
         <v>614</v>
       </c>
-      <c r="C199" s="24" t="s">
+      <c r="D199" s="25" t="s">
         <v>615</v>
-      </c>
-      <c r="D199" s="25" t="s">
-        <v>616</v>
       </c>
       <c r="E199" s="21" t="s">
         <v>3</v>
@@ -6546,13 +6543,13 @@
         <v>299</v>
       </c>
       <c r="B200" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C200" s="24" t="s">
         <v>617</v>
       </c>
-      <c r="C200" s="24" t="s">
+      <c r="D200" s="25" t="s">
         <v>618</v>
-      </c>
-      <c r="D200" s="25" t="s">
-        <v>619</v>
       </c>
       <c r="E200" s="21" t="s">
         <v>3</v>
@@ -6563,13 +6560,13 @@
         <v>300</v>
       </c>
       <c r="B201" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C201" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="C201" s="24" t="s">
+      <c r="D201" s="25" t="s">
         <v>621</v>
-      </c>
-      <c r="D201" s="25" t="s">
-        <v>622</v>
       </c>
       <c r="E201" s="21" t="s">
         <v>3</v>
@@ -6580,16 +6577,16 @@
         <v>301</v>
       </c>
       <c r="B202" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C202" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="C202" s="24" t="s">
+      <c r="D202" s="25" t="s">
         <v>624</v>
       </c>
-      <c r="D202" s="25" t="s">
-        <v>625</v>
-      </c>
       <c r="E202" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6597,13 +6594,13 @@
         <v>302</v>
       </c>
       <c r="B203" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C203" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="C203" s="24" t="s">
+      <c r="D203" s="25" t="s">
         <v>627</v>
-      </c>
-      <c r="D203" s="25" t="s">
-        <v>628</v>
       </c>
       <c r="E203" s="21" t="s">
         <v>3</v>
@@ -6614,13 +6611,13 @@
         <v>303</v>
       </c>
       <c r="B204" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C204" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="C204" s="24" t="s">
+      <c r="D204" s="25" t="s">
         <v>630</v>
-      </c>
-      <c r="D204" s="25" t="s">
-        <v>631</v>
       </c>
       <c r="E204" s="21" t="s">
         <v>3</v>
@@ -6631,13 +6628,13 @@
         <v>304</v>
       </c>
       <c r="B205" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C205" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="C205" s="24" t="s">
+      <c r="D205" s="25" t="s">
         <v>633</v>
-      </c>
-      <c r="D205" s="25" t="s">
-        <v>634</v>
       </c>
       <c r="E205" s="21" t="s">
         <v>3</v>
@@ -6648,13 +6645,13 @@
         <v>305</v>
       </c>
       <c r="B206" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="C206" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="C206" s="24" t="s">
+      <c r="D206" s="25" t="s">
         <v>636</v>
-      </c>
-      <c r="D206" s="25" t="s">
-        <v>637</v>
       </c>
       <c r="E206" s="21" t="s">
         <v>3</v>
@@ -6665,13 +6662,13 @@
         <v>306</v>
       </c>
       <c r="B207" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C207" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="C207" s="24" t="s">
+      <c r="D207" s="25" t="s">
         <v>639</v>
-      </c>
-      <c r="D207" s="25" t="s">
-        <v>640</v>
       </c>
       <c r="E207" s="21" t="s">
         <v>3</v>
@@ -6682,13 +6679,13 @@
         <v>307</v>
       </c>
       <c r="B208" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C208" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="C208" s="24" t="s">
+      <c r="D208" s="25" t="s">
         <v>642</v>
-      </c>
-      <c r="D208" s="25" t="s">
-        <v>643</v>
       </c>
       <c r="E208" s="21" t="s">
         <v>3</v>
@@ -6699,16 +6696,16 @@
         <v>308</v>
       </c>
       <c r="B209" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C209" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="C209" s="24" t="s">
+      <c r="D209" s="25" t="s">
         <v>645</v>
       </c>
-      <c r="D209" s="25" t="s">
-        <v>646</v>
-      </c>
       <c r="E209" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6716,13 +6713,13 @@
         <v>309</v>
       </c>
       <c r="B210" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C210" s="24" t="s">
         <v>647</v>
       </c>
-      <c r="C210" s="24" t="s">
+      <c r="D210" s="25" t="s">
         <v>648</v>
-      </c>
-      <c r="D210" s="25" t="s">
-        <v>649</v>
       </c>
       <c r="E210" s="21" t="s">
         <v>3</v>
@@ -6733,13 +6730,13 @@
         <v>310</v>
       </c>
       <c r="B211" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C211" s="24" t="s">
         <v>650</v>
       </c>
-      <c r="C211" s="24" t="s">
+      <c r="D211" s="25" t="s">
         <v>651</v>
-      </c>
-      <c r="D211" s="25" t="s">
-        <v>652</v>
       </c>
       <c r="E211" s="21" t="s">
         <v>3</v>
@@ -6750,13 +6747,13 @@
         <v>311</v>
       </c>
       <c r="B212" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C212" s="24" t="s">
         <v>653</v>
       </c>
-      <c r="C212" s="24" t="s">
+      <c r="D212" s="25" t="s">
         <v>654</v>
-      </c>
-      <c r="D212" s="25" t="s">
-        <v>655</v>
       </c>
       <c r="E212" s="21" t="s">
         <v>3</v>
@@ -6767,13 +6764,13 @@
         <v>312</v>
       </c>
       <c r="B213" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C213" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="C213" s="24" t="s">
+      <c r="D213" s="25" t="s">
         <v>657</v>
-      </c>
-      <c r="D213" s="25" t="s">
-        <v>658</v>
       </c>
       <c r="E213" s="21" t="s">
         <v>3</v>
@@ -6784,13 +6781,13 @@
         <v>313</v>
       </c>
       <c r="B214" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C214" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="C214" s="24" t="s">
+      <c r="D214" s="25" t="s">
         <v>660</v>
-      </c>
-      <c r="D214" s="25" t="s">
-        <v>661</v>
       </c>
       <c r="E214" s="21" t="s">
         <v>3</v>
@@ -6801,16 +6798,16 @@
         <v>314</v>
       </c>
       <c r="B215" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C215" s="24" t="s">
         <v>662</v>
       </c>
-      <c r="C215" s="24" t="s">
+      <c r="D215" s="25" t="s">
         <v>663</v>
       </c>
-      <c r="D215" s="25" t="s">
-        <v>664</v>
-      </c>
       <c r="E215" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6818,16 +6815,16 @@
         <v>315</v>
       </c>
       <c r="B216" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C216" s="24" t="s">
         <v>665</v>
       </c>
-      <c r="C216" s="24" t="s">
+      <c r="D216" s="25" t="s">
         <v>666</v>
       </c>
-      <c r="D216" s="25" t="s">
-        <v>667</v>
-      </c>
       <c r="E216" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6835,13 +6832,13 @@
         <v>316</v>
       </c>
       <c r="B217" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C217" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="C217" s="24" t="s">
+      <c r="D217" s="25" t="s">
         <v>669</v>
-      </c>
-      <c r="D217" s="25" t="s">
-        <v>670</v>
       </c>
       <c r="E217" s="42" t="s">
         <v>3</v>
@@ -6852,13 +6849,13 @@
         <v>317</v>
       </c>
       <c r="B218" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C218" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="C218" s="24" t="s">
+      <c r="D218" s="25" t="s">
         <v>672</v>
-      </c>
-      <c r="D218" s="25" t="s">
-        <v>673</v>
       </c>
       <c r="E218" s="42" t="s">
         <v>3</v>
@@ -6869,10 +6866,10 @@
         <v>318</v>
       </c>
       <c r="B219" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C219" s="24" t="s">
         <v>674</v>
-      </c>
-      <c r="C219" s="24" t="s">
-        <v>675</v>
       </c>
       <c r="D219" s="25"/>
       <c r="E219" s="42"/>
@@ -6882,10 +6879,10 @@
         <v>319</v>
       </c>
       <c r="B220" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C220" s="24" t="s">
         <v>676</v>
-      </c>
-      <c r="C220" s="24" t="s">
-        <v>677</v>
       </c>
       <c r="D220" s="25"/>
       <c r="E220" s="42" t="s">
@@ -6897,10 +6894,10 @@
         <v>320</v>
       </c>
       <c r="B221" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C221" s="24" t="s">
         <v>678</v>
-      </c>
-      <c r="C221" s="24" t="s">
-        <v>679</v>
       </c>
       <c r="D221" s="25"/>
       <c r="E221" s="42" t="s">
@@ -6912,13 +6909,13 @@
         <v>321</v>
       </c>
       <c r="B222" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C222" s="24" t="s">
         <v>680</v>
       </c>
-      <c r="C222" s="24" t="s">
+      <c r="D222" s="25" t="s">
         <v>681</v>
-      </c>
-      <c r="D222" s="25" t="s">
-        <v>682</v>
       </c>
       <c r="E222" s="42" t="s">
         <v>3</v>
@@ -6929,13 +6926,13 @@
         <v>322</v>
       </c>
       <c r="B223" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C223" s="24" t="s">
         <v>683</v>
       </c>
-      <c r="C223" s="24" t="s">
+      <c r="D223" s="25" t="s">
         <v>684</v>
-      </c>
-      <c r="D223" s="25" t="s">
-        <v>685</v>
       </c>
       <c r="E223" s="42" t="s">
         <v>3</v>
@@ -6946,13 +6943,13 @@
         <v>323</v>
       </c>
       <c r="B224" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C224" s="24" t="s">
         <v>686</v>
       </c>
-      <c r="C224" s="24" t="s">
+      <c r="D224" s="25" t="s">
         <v>687</v>
-      </c>
-      <c r="D224" s="25" t="s">
-        <v>688</v>
       </c>
       <c r="E224" s="42" t="s">
         <v>3</v>
@@ -6963,16 +6960,16 @@
         <v>324</v>
       </c>
       <c r="B225" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="C225" s="24" t="s">
         <v>689</v>
       </c>
-      <c r="C225" s="24" t="s">
+      <c r="D225" s="25" t="s">
         <v>690</v>
       </c>
-      <c r="D225" s="25" t="s">
-        <v>691</v>
-      </c>
       <c r="E225" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="21" x14ac:dyDescent="0.4">
@@ -6980,10 +6977,10 @@
         <v>325</v>
       </c>
       <c r="B226" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C226" s="42" t="s">
         <v>692</v>
-      </c>
-      <c r="C226" s="42" t="s">
-        <v>693</v>
       </c>
       <c r="D226" s="25"/>
       <c r="E226" s="42" t="s">
@@ -6995,13 +6992,13 @@
         <v>325</v>
       </c>
       <c r="B227" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C227" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="C227" s="42" t="s">
+      <c r="D227" s="25" t="s">
         <v>695</v>
-      </c>
-      <c r="D227" s="25" t="s">
-        <v>696</v>
       </c>
       <c r="E227" s="42" t="s">
         <v>3</v>
